--- a/Meetrikud.xlsx
+++ b/Meetrikud.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vali\Documents\GitHub\nn2025_track2_mv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AD9AB6D-0F66-4FC7-BFFE-9E5B9C17C9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC279B2-A51A-4AD7-8B68-7C36BB530C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{438931F5-7F3D-43AB-93FF-301C4D0616D0}"/>
+    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="3" xr2:uid="{438931F5-7F3D-43AB-93FF-301C4D0616D0}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
-    <sheet name="sigmos_results (2)" sheetId="5" r:id="rId2"/>
-    <sheet name="sigmos_results" sheetId="4" r:id="rId3"/>
+    <sheet name="sigmos_results" sheetId="4" r:id="rId2"/>
+    <sheet name="sigmos_results (2)" sheetId="5" r:id="rId3"/>
     <sheet name="Leht2" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Välisandmed_1" localSheetId="0" hidden="1">'results'!$A$1:$L$4</definedName>
-    <definedName name="Välisandmed_1" localSheetId="2" hidden="1">sigmos_results!$A$1:$H$4</definedName>
-    <definedName name="Välisandmed_2" localSheetId="1" hidden="1">'sigmos_results (2)'!$A$1:$H$4</definedName>
+    <definedName name="Välisandmed_1" localSheetId="0" hidden="1">'results'!$A$1:$L$7</definedName>
+    <definedName name="Välisandmed_1" localSheetId="1" hidden="1">sigmos_results!$A$1:$H$4</definedName>
+    <definedName name="Välisandmed_2" localSheetId="2" hidden="1">'sigmos_results (2)'!$A$1:$H$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>Column1</t>
   </si>
@@ -192,7 +192,61 @@
     <t>1.6239</t>
   </si>
   <si>
-    <t>New Model,wav</t>
+    <t>800b80sd15np50</t>
+  </si>
+  <si>
+    <t>1600b160sd15np50</t>
+  </si>
+  <si>
+    <t>1600b160sd5np75</t>
+  </si>
+  <si>
+    <t>1600b160sd5np75ni015</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>0.213</t>
+  </si>
+  <si>
+    <t>0.0646</t>
+  </si>
+  <si>
+    <t>0.0025</t>
+  </si>
+  <si>
+    <t>Loss_Epoch10</t>
+  </si>
+  <si>
+    <t>0.2098</t>
+  </si>
+  <si>
+    <t>0.0024</t>
+  </si>
+  <si>
+    <t>0.2109</t>
+  </si>
+  <si>
+    <t>0.2130</t>
+  </si>
+  <si>
+    <t>Small sample</t>
+  </si>
+  <si>
+    <t>Larger sample</t>
+  </si>
+  <si>
+    <t>Smaller audio length</t>
+  </si>
+  <si>
+    <t>Lower nearend interval</t>
+  </si>
+  <si>
+    <t>Largest change</t>
   </si>
 </sst>
 </file>
@@ -209,15 +263,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -225,23 +285,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaallaad" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -254,28 +351,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -348,6 +424,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Välisandmed_1" connectionId="2" xr16:uid="{23CB5715-4440-43D8-B9AB-6E32465C1D48}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="9">
+    <queryTableFields count="8">
+      <queryTableField id="1" name="Filename" tableColumnId="1"/>
+      <queryTableField id="2" name="MOS_COL" tableColumnId="2"/>
+      <queryTableField id="3" name="MOS_DISC" tableColumnId="3"/>
+      <queryTableField id="4" name="MOS_LOUD" tableColumnId="4"/>
+      <queryTableField id="5" name="MOS_NOISE" tableColumnId="5"/>
+      <queryTableField id="6" name="MOS_REVERB" tableColumnId="6"/>
+      <queryTableField id="7" name="MOS_SIG" tableColumnId="7"/>
+      <queryTableField id="8" name="MOS_OVRL" tableColumnId="8"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Välisandmed_2" connectionId="3" xr16:uid="{9188BC54-9028-4744-8FD3-581057BAC6A7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="8">
@@ -364,26 +457,9 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Välisandmed_1" connectionId="2" xr16:uid="{23CB5715-4440-43D8-B9AB-6E32465C1D48}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="8">
-      <queryTableField id="1" name="Filename" tableColumnId="1"/>
-      <queryTableField id="2" name="MOS_COL" tableColumnId="2"/>
-      <queryTableField id="3" name="MOS_DISC" tableColumnId="3"/>
-      <queryTableField id="4" name="MOS_LOUD" tableColumnId="4"/>
-      <queryTableField id="5" name="MOS_NOISE" tableColumnId="5"/>
-      <queryTableField id="6" name="MOS_REVERB" tableColumnId="6"/>
-      <queryTableField id="7" name="MOS_SIG" tableColumnId="7"/>
-      <queryTableField id="8" name="MOS_OVRL" tableColumnId="8"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DEBBE6DA-33B4-4E75-A0F7-7B7159002AD8}" name="results" displayName="results" ref="A1:L4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L4" xr:uid="{DEBBE6DA-33B4-4E75-A0F7-7B7159002AD8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DEBBE6DA-33B4-4E75-A0F7-7B7159002AD8}" name="results" displayName="results" ref="A1:L7" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L7" xr:uid="{DEBBE6DA-33B4-4E75-A0F7-7B7159002AD8}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{FCCE9405-C726-4056-B360-1ABAC10ACCE5}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{C37A910C-5D84-443C-9B10-94B7872B202F}" uniqueName="2" name="filename" queryTableFieldId="2" dataDxfId="24"/>
@@ -403,34 +479,34 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B668DAD5-3E6B-460F-A9BE-AA32B903CD6D}" name="sigmos_results__2" displayName="sigmos_results__2" ref="A1:H4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H4" xr:uid="{B668DAD5-3E6B-460F-A9BE-AA32B903CD6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DA93C894-C205-45D0-9BE1-4D62853E19D2}" name="sigmos_results" displayName="sigmos_results" ref="A1:H4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H4" xr:uid="{DA93C894-C205-45D0-9BE1-4D62853E19D2}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1F56AA57-16E6-4B6B-A483-4DFD0BCA65A8}" uniqueName="1" name="Filename" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{CDEE1D79-99B9-4F3B-A11E-3F2526F9CD67}" uniqueName="2" name="MOS_COL" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{BCA19AE5-1607-4BBE-B195-93A18CD227B5}" uniqueName="3" name="MOS_DISC" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{E5A8F22D-555B-4302-B949-FC323DB9A36D}" uniqueName="4" name="MOS_LOUD" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{63ADBFEB-37ED-498D-A19B-5834992D8095}" uniqueName="5" name="MOS_NOISE" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{DFE87CCB-01A1-437E-85F2-6A5B45FDC4DE}" uniqueName="6" name="MOS_REVERB" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{363259EE-E593-4B6A-99D3-B0832F837EB4}" uniqueName="7" name="MOS_SIG" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{7A96A589-A31D-40AC-9F3B-940993635DD9}" uniqueName="8" name="MOS_OVRL" queryTableFieldId="8" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A0453A15-FBCE-4DB7-987A-08DFDD2DA857}" uniqueName="1" name="Filename" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{A7ED77E0-E0FC-42E5-BF54-4CF76A579EA5}" uniqueName="2" name="MOS_COL" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{29BF77F0-B74F-436F-B3A5-879EFED427FC}" uniqueName="3" name="MOS_DISC" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{826C0467-4787-4618-BB07-DECD5BADB8AC}" uniqueName="4" name="MOS_LOUD" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1FCC2B53-047E-4A77-9D6A-2765715896C3}" uniqueName="5" name="MOS_NOISE" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{59BF2875-E31B-4234-9F78-BEA70C4048D9}" uniqueName="6" name="MOS_REVERB" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{374CB936-0181-4B6A-AF4A-89200D62A907}" uniqueName="7" name="MOS_SIG" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{EC02466C-3C9D-4C85-8E02-8F9983A86905}" uniqueName="8" name="MOS_OVRL" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DA93C894-C205-45D0-9BE1-4D62853E19D2}" name="sigmos_results" displayName="sigmos_results" ref="A1:H4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H4" xr:uid="{DA93C894-C205-45D0-9BE1-4D62853E19D2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B668DAD5-3E6B-460F-A9BE-AA32B903CD6D}" name="sigmos_results__2" displayName="sigmos_results__2" ref="A1:H7" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H7" xr:uid="{B668DAD5-3E6B-460F-A9BE-AA32B903CD6D}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A0453A15-FBCE-4DB7-987A-08DFDD2DA857}" uniqueName="1" name="Filename" queryTableFieldId="1" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{A7ED77E0-E0FC-42E5-BF54-4CF76A579EA5}" uniqueName="2" name="MOS_COL" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{29BF77F0-B74F-436F-B3A5-879EFED427FC}" uniqueName="3" name="MOS_DISC" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{826C0467-4787-4618-BB07-DECD5BADB8AC}" uniqueName="4" name="MOS_LOUD" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{1FCC2B53-047E-4A77-9D6A-2765715896C3}" uniqueName="5" name="MOS_NOISE" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{59BF2875-E31B-4234-9F78-BEA70C4048D9}" uniqueName="6" name="MOS_REVERB" queryTableFieldId="6" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{374CB936-0181-4B6A-AF4A-89200D62A907}" uniqueName="7" name="MOS_SIG" queryTableFieldId="7" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{EC02466C-3C9D-4C85-8E02-8F9983A86905}" uniqueName="8" name="MOS_OVRL" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{1F56AA57-16E6-4B6B-A483-4DFD0BCA65A8}" uniqueName="1" name="Filename" queryTableFieldId="1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{CDEE1D79-99B9-4F3B-A11E-3F2526F9CD67}" uniqueName="2" name="MOS_COL" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{BCA19AE5-1607-4BBE-B195-93A18CD227B5}" uniqueName="3" name="MOS_DISC" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{E5A8F22D-555B-4302-B949-FC323DB9A36D}" uniqueName="4" name="MOS_LOUD" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{63ADBFEB-37ED-498D-A19B-5834992D8095}" uniqueName="5" name="MOS_NOISE" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{DFE87CCB-01A1-437E-85F2-6A5B45FDC4DE}" uniqueName="6" name="MOS_REVERB" queryTableFieldId="6" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{363259EE-E593-4B6A-99D3-B0832F837EB4}" uniqueName="7" name="MOS_SIG" queryTableFieldId="7" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{7A96A589-A31D-40AC-9F3B-940993635DD9}" uniqueName="8" name="MOS_OVRL" queryTableFieldId="8" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -753,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8695467-8E3F-4751-90D3-59E38C2BF4CB}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,10 +889,10 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>15</v>
       </c>
       <c r="D2">
@@ -825,25 +901,25 @@
       <c r="E2">
         <v>6</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>2.0223045349121</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>2.2435226440429599</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>3.24122738838195</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>2.0245074977439401</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>2.3205248697288301</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>3.4332684943048299</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>3.1997263431549001</v>
       </c>
     </row>
@@ -851,10 +927,10 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>15</v>
       </c>
       <c r="D3">
@@ -863,25 +939,25 @@
       <c r="E3">
         <v>6</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>2.64703321456909</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>2.7948753833770699</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>4.0657324790954501</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>2.5243178544215801</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>2.7610373168931699</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>3.9692904883666</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>3.2757003307342498</v>
       </c>
     </row>
@@ -889,10 +965,10 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>15</v>
       </c>
       <c r="D4">
@@ -901,27 +977,66 @@
       <c r="E4">
         <v>6</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>2.2603003978729199</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>2.5640006065368599</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>3.42084407806396</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>2.22132046938821</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>2.5827197378276701</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>3.56681306196305</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>3.19961380958557</v>
       </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -933,139 +1048,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA9F0DA-FBF2-49B4-ABED-F8F03D696B9E}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.6311</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3.1833999999999998</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.1961999999999999</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.0362</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.2975000000000001</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.3540000000000001</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1.1657999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.1442999999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3.4251</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2.1717</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2.0619999999999998</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2.7395999999999998</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1.9043000000000001</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1.498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2.5785999999999998</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.6968999999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2.5762</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.9554</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3.0838000000000001</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2.3292000000000002</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1.6238999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6F3E6F-B774-4506-AE8A-17E59470F135}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1112,80 +1094,80 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>12785</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>2608929</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>508451</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1197,14 +1179,262 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA9F0DA-FBF2-49B4-ABED-F8F03D696B9E}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1.6311</v>
+      </c>
+      <c r="C2">
+        <v>3.1833999999999998</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.1961999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.0362</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.2975000000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.1657999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>2.1442999999999999</v>
+      </c>
+      <c r="C3">
+        <v>3.4251</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.1717</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.7395999999999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.9043000000000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>2.5785999999999998</v>
+      </c>
+      <c r="C4">
+        <v>3.6968999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.5762</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.9554</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.0838000000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.3292000000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.6238999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D04569-6099-45BD-A964-C2E745680C50}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
